--- a/11.API 정리.xlsx
+++ b/11.API 정리.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.180.50664"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.228.52576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정리" sheetId="1" r:id="rId1"/>
@@ -1319,7 +1319,7 @@
       <color rgb="FFCE9178"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1524,12 +1524,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1891,7 +1885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2051,11 +2045,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2063,25 +2057,16 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2090,92 +2075,23 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2185,9 +2101,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2509,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A17" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2519,1942 +2432,1921 @@
     <col min="5" max="5" width="47.63000107" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="20.00499916" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="22.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="60" width="20.75499916" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="60" width="11.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="57" width="20.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="57" width="11.88000011" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" width="36.25500107" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="71"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="76" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="55" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="74"/>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="76" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="55" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="74"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="71" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="80"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="49.500000">
-      <c r="A7" s="74"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="71"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="76" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="55" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="74"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="J9" s="71"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="71" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="J10" s="71"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="71" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="J11" s="71"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="71" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="J12" s="71"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="88" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="76" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="55" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="74"/>
-      <c r="B14" s="70" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="76" t="s">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="55" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="76"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="88" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="76" t="s">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="55" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="74"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I17" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="71" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="G18" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="H18" s="73" t="s">
+      <c r="H18" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="71" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="89" t="s">
+      <c r="G19" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="82"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="71" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="89" t="s">
+      <c r="G20" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="H20" s="93" t="s">
+      <c r="H20" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J20" s="71" t="s">
+      <c r="J20" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="33.000000">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="I21" s="93" t="s">
+      <c r="I21" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="33.000000">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H22" s="93" t="s">
+      <c r="H22" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="93" t="s">
+      <c r="I22" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="J22" s="71"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="66.000000">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="71" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="93" t="s">
+      <c r="H23" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="I23" s="93" t="s">
+      <c r="I23" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J23" s="73"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="33.000000">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="71" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="93" t="s">
+      <c r="F24" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="H24" s="93" t="s">
+      <c r="H24" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="I24" s="93" t="s">
+      <c r="I24" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J24" s="73"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="91"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="71" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="93" t="s">
+      <c r="G25" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="H25" s="93" t="s">
+      <c r="H25" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="I25" s="93" t="s">
+      <c r="I25" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="J25" s="73"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" ht="33.000000">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="I26" s="93" t="s">
+      <c r="I26" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="J26" s="73" t="s">
+      <c r="J26" s="59" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="33.000000">
-      <c r="A27" s="91"/>
-      <c r="B27" s="91" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F27" s="93" t="s">
+      <c r="F27" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="H27" s="93" t="s">
+      <c r="H27" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="I27" s="93" t="s">
+      <c r="I27" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J27" s="73" t="s">
+      <c r="J27" s="59" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="33.000000">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="I28" s="93" t="s">
+      <c r="I28" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J28" s="73" t="s">
+      <c r="J28" s="59" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="49.500000">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="93" t="s">
+      <c r="F29" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="G29" s="93" t="s">
+      <c r="G29" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="I29" s="93" t="s">
+      <c r="I29" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="J29" s="73" t="s">
+      <c r="J29" s="59" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="49.500000">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F30" s="93" t="s">
+      <c r="F30" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="G30" s="93" t="s">
+      <c r="G30" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="I30" s="93" t="s">
+      <c r="I30" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J30" s="73" t="s">
+      <c r="J30" s="59" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="49.500000">
-      <c r="A31" s="91"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="71" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="G31" s="93" t="s">
+      <c r="G31" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="H31" s="93" t="s">
+      <c r="H31" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="I31" s="93" t="s">
+      <c r="I31" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J31" s="73" t="s">
+      <c r="J31" s="59" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="49.500000">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="71" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="G32" s="93" t="s">
+      <c r="G32" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="H32" s="93" t="s">
+      <c r="H32" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="I32" s="93" t="s">
+      <c r="I32" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J32" s="73" t="s">
+      <c r="J32" s="59" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="49.500000">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="71" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="G33" s="93" t="s">
+      <c r="G33" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="H33" s="93" t="s">
+      <c r="H33" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="I33" s="93" t="s">
+      <c r="I33" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J33" s="73" t="s">
+      <c r="J33" s="59" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="66.000000">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="71" t="s">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F34" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="93" t="s">
+      <c r="G34" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="H34" s="93" t="s">
+      <c r="H34" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="I34" s="93" t="s">
+      <c r="I34" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="J34" s="73" t="s">
+      <c r="J34" s="59" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="75"/>
-      <c r="B35" s="91" t="s">
+      <c r="A35" s="52"/>
+      <c r="B35" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="73"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="72" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="73"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="73"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="72" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="73"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="72" t="s">
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="73"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="72" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="74"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="74"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="72" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="74"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="72" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="80"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="72" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="74"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="72" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="74"/>
-      <c r="B46" s="70" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="74"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="72" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="74"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="72" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="74"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="74"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="72" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="74"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="72" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="74"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="72" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="74"/>
-      <c r="B53" s="70" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="72" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="74"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="72" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="74"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="72" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="80"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="72" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="82"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="72" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="72" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="74"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="72" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="74"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="72" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="74"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="72" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="80"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="72" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="80"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="72" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="74"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="72" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="74"/>
-      <c r="B65" s="70" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="72" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="74"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="72" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="74"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="72" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="74"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="72" t="s">
+      <c r="A68" s="13"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="74"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="72" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="74"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="72" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="74"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="72" t="s">
+      <c r="A71" s="13"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="74"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="84" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="74"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="84" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F73" s="73"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="74"/>
-      <c r="B74" s="70" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="72" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="74"/>
-      <c r="B75" s="75"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="72" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="80"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="72" t="s">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="74"/>
-      <c r="B77" s="75"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="72" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="73"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="82"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="72" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
-      <c r="J78" s="73"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="69" t="s">
+      <c r="A79" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="72" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="74"/>
-      <c r="B80" s="75"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="72" t="s">
+      <c r="A80" s="13"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="74"/>
-      <c r="B81" s="75"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="72" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
-      <c r="I81" s="73"/>
-      <c r="J81" s="73"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="74"/>
-      <c r="B82" s="75"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="72" t="s">
+      <c r="A82" s="13"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="73"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="74"/>
-      <c r="B83" s="75"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="72" t="s">
+      <c r="A83" s="13"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="80"/>
-      <c r="B84" s="75" t="s">
+      <c r="B84" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="72" t="s">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="73"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="80"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="72" t="s">
+      <c r="B85" s="52"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="74"/>
-      <c r="B86" s="70" t="s">
+      <c r="A86" s="13"/>
+      <c r="B86" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="72" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="74"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="72" t="s">
+      <c r="A87" s="13"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F87" s="73"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="73"/>
-      <c r="I87" s="73"/>
-      <c r="J87" s="73"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="80"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="72" t="s">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="74"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="72" t="s">
+      <c r="A89" s="13"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="74"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="72" t="s">
+      <c r="A90" s="13"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="73"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="82"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="72" t="s">
+      <c r="A91" s="14"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F91" s="73"/>
-      <c r="G91" s="73"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="70" t="s">
+      <c r="B92" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="72" t="s">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="73"/>
-      <c r="J92" s="73"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="74"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="72" t="s">
+      <c r="A93" s="13"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F93" s="73"/>
-      <c r="G93" s="73"/>
-      <c r="H93" s="73"/>
-      <c r="I93" s="73"/>
-      <c r="J93" s="73"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="74"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="72" t="s">
+      <c r="A94" s="13"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="73"/>
-      <c r="J94" s="73"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="74"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="72" t="s">
+      <c r="A95" s="13"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F95" s="73"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="73"/>
-      <c r="J95" s="73"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="74"/>
-      <c r="B96" s="70"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="72" t="s">
+      <c r="A96" s="13"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="73"/>
-      <c r="J96" s="73"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="74"/>
-      <c r="B97" s="70" t="s">
+      <c r="A97" s="13"/>
+      <c r="B97" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="72" t="s">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F97" s="73"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="73"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="82"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="72" t="s">
+      <c r="A98" s="14"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="79" t="s">
+      <c r="A99" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B99" s="70" t="s">
+      <c r="B99" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="71"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="72" t="s">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="73"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="79"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="72" t="s">
+      <c r="A100" s="40"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="73"/>
-      <c r="J100" s="73"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="79"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="72" t="s">
+      <c r="A101" s="40"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="73"/>
-      <c r="G101" s="73"/>
-      <c r="H101" s="73"/>
-      <c r="I101" s="73"/>
-      <c r="J101" s="73"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="59"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="79"/>
-      <c r="B102" s="75"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="72" t="s">
+      <c r="A102" s="40"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
-      <c r="I102" s="73"/>
-      <c r="J102" s="73"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="85"/>
-      <c r="B103" s="70" t="s">
+      <c r="A103" s="29"/>
+      <c r="B103" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="71"/>
-      <c r="D103" s="71"/>
-      <c r="E103" s="71" t="s">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F103" s="73"/>
-      <c r="G103" s="73"/>
-      <c r="H103" s="73"/>
-      <c r="I103" s="73"/>
-      <c r="J103" s="73"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="85"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71" t="s">
+      <c r="A104" s="29"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F104" s="73"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
-      <c r="I104" s="73"/>
-      <c r="J104" s="73"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="79" t="s">
+      <c r="A105" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="B105" s="70" t="s">
+      <c r="B105" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="71"/>
-      <c r="D105" s="71"/>
-      <c r="E105" s="72" t="s">
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F105" s="73"/>
-      <c r="G105" s="73"/>
-      <c r="H105" s="73"/>
-      <c r="I105" s="73"/>
-      <c r="J105" s="73"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="79"/>
-      <c r="B106" s="75"/>
-      <c r="C106" s="71"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="72" t="s">
+      <c r="A106" s="40"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F106" s="73"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="73"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="73"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="79"/>
-      <c r="B107" s="75"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="71"/>
-      <c r="E107" s="72" t="s">
+      <c r="A107" s="40"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F107" s="73"/>
-      <c r="G107" s="73"/>
-      <c r="H107" s="73"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="73"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="79"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="71"/>
-      <c r="E108" s="72" t="s">
+      <c r="A108" s="40"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F108" s="73"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="73"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="0"/>
-      <c r="B109" s="0"/>
-      <c r="C109" s="0"/>
-      <c r="D109" s="0"/>
-      <c r="E109" s="0"/>
-      <c r="F109" s="0"/>
-      <c r="G109" s="0"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="60"/>
-      <c r="J109" s="0"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
